--- a/calibration data.xlsx
+++ b/calibration data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Documents/Arduino/Bluetooth_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BED55-A100-F146-9FA8-AC642B95F3A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7F9586-F14D-584F-8822-DC938F07AB58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="15420" windowHeight="17560" xr2:uid="{01F3A207-F49A-4242-AA42-EE81E662A5EC}"/>
+    <workbookView xWindow="2680" yWindow="440" windowWidth="14400" windowHeight="17560" xr2:uid="{01F3A207-F49A-4242-AA42-EE81E662A5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +88,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,17 +124,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07ACB5-FC36-6449-8687-34C56EEE23C1}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,46 +481,46 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1171,6 +1184,641 @@
       </c>
       <c r="X18">
         <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>-6</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>-2</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>227</v>
+      </c>
+      <c r="J19">
+        <v>-11</v>
+      </c>
+      <c r="K19">
+        <v>-116</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>796</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>-20</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>-723</v>
+      </c>
+      <c r="U19">
+        <v>-103</v>
+      </c>
+      <c r="V19">
+        <v>-832</v>
+      </c>
+      <c r="W19">
+        <v>1000</v>
+      </c>
+      <c r="X19">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>-10</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>230</v>
+      </c>
+      <c r="J20">
+        <v>-7</v>
+      </c>
+      <c r="K20">
+        <v>-117</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <v>753</v>
+      </c>
+      <c r="N20">
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>-37</v>
+      </c>
+      <c r="P20">
+        <v>-4</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>-713</v>
+      </c>
+      <c r="U20">
+        <v>-1028</v>
+      </c>
+      <c r="V20">
+        <v>-842</v>
+      </c>
+      <c r="W20">
+        <v>1000</v>
+      </c>
+      <c r="X20">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>-10</v>
+      </c>
+      <c r="D21">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>-2</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>223</v>
+      </c>
+      <c r="J21">
+        <v>-7</v>
+      </c>
+      <c r="K21">
+        <v>-114</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>751</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>-25</v>
+      </c>
+      <c r="P21">
+        <v>-4</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>-695</v>
+      </c>
+      <c r="U21">
+        <v>-1041</v>
+      </c>
+      <c r="V21">
+        <v>-843</v>
+      </c>
+      <c r="W21">
+        <v>1000</v>
+      </c>
+      <c r="X21">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>-6</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>-2</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>221</v>
+      </c>
+      <c r="J22">
+        <v>-7</v>
+      </c>
+      <c r="K22">
+        <v>-115</v>
+      </c>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22">
+        <v>781</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>-8</v>
+      </c>
+      <c r="P22">
+        <v>-7</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>-1</v>
+      </c>
+      <c r="T22">
+        <v>-705</v>
+      </c>
+      <c r="U22">
+        <v>-1021</v>
+      </c>
+      <c r="V22">
+        <v>-845</v>
+      </c>
+      <c r="W22">
+        <v>1000</v>
+      </c>
+      <c r="X22">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>-9</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>224</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-119</v>
+      </c>
+      <c r="L23">
+        <v>1000</v>
+      </c>
+      <c r="M23">
+        <v>769</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>-27</v>
+      </c>
+      <c r="P23">
+        <v>-7</v>
+      </c>
+      <c r="Q23">
+        <v>-3</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>-1</v>
+      </c>
+      <c r="T23">
+        <v>-745</v>
+      </c>
+      <c r="U23">
+        <v>-1003</v>
+      </c>
+      <c r="V23">
+        <v>-902</v>
+      </c>
+      <c r="W23">
+        <v>1000</v>
+      </c>
+      <c r="X23">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>-5</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>-2</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>226</v>
+      </c>
+      <c r="J24">
+        <v>-12</v>
+      </c>
+      <c r="K24">
+        <v>-106</v>
+      </c>
+      <c r="L24">
+        <v>1000</v>
+      </c>
+      <c r="M24">
+        <v>776</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>-34</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>-2</v>
+      </c>
+      <c r="T24">
+        <v>-720</v>
+      </c>
+      <c r="U24">
+        <v>-1012</v>
+      </c>
+      <c r="V24">
+        <v>-909</v>
+      </c>
+      <c r="W24">
+        <v>1000</v>
+      </c>
+      <c r="X24">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>-6</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>-2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>178</v>
+      </c>
+      <c r="J25">
+        <v>-8</v>
+      </c>
+      <c r="K25">
+        <v>-184</v>
+      </c>
+      <c r="L25">
+        <v>1000</v>
+      </c>
+      <c r="M25">
+        <v>774</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>-15</v>
+      </c>
+      <c r="P25">
+        <v>-4</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>-737</v>
+      </c>
+      <c r="U25">
+        <v>-1033</v>
+      </c>
+      <c r="V25">
+        <v>-897</v>
+      </c>
+      <c r="W25">
+        <v>1000</v>
+      </c>
+      <c r="X25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>201</v>
+      </c>
+      <c r="J26">
+        <v>-20</v>
+      </c>
+      <c r="K26">
+        <v>-112</v>
+      </c>
+      <c r="L26">
+        <v>1000</v>
+      </c>
+      <c r="M26">
+        <v>919</v>
+      </c>
+      <c r="N26">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>-2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>-1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>-1</v>
+      </c>
+      <c r="T26">
+        <f>-680 -946</f>
+        <v>-1626</v>
+      </c>
+      <c r="U26">
+        <v>-878</v>
+      </c>
+      <c r="V26">
+        <v>-878</v>
+      </c>
+      <c r="W26">
+        <v>1000</v>
+      </c>
+      <c r="X26">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <f>AVERAGE(C17:C26)</f>
+        <v>-6.9</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:X28" si="1">AVERAGE(D17:D26)</f>
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>217.2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>-11.9</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>-123</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>784.9</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="1"/>
+        <v>12.3</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="1"/>
+        <v>-810.1</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="1"/>
+        <v>-913.3</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="1"/>
+        <v>-863.2</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="1"/>
+        <v>774.7</v>
       </c>
     </row>
   </sheetData>
